--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>301.48083</v>
+        <v>236.7946826666667</v>
       </c>
       <c r="H2">
-        <v>904.4424899999999</v>
+        <v>710.384048</v>
       </c>
       <c r="I2">
-        <v>0.5977744084099033</v>
+        <v>0.7123899543147419</v>
       </c>
       <c r="J2">
-        <v>0.6507315779475965</v>
+        <v>0.7240508783182559</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.178057</v>
+        <v>2.509764</v>
       </c>
       <c r="N2">
-        <v>0.534171</v>
+        <v>7.529292</v>
       </c>
       <c r="O2">
-        <v>0.01072706596418309</v>
+        <v>0.4449267202378082</v>
       </c>
       <c r="P2">
-        <v>0.01486309420510698</v>
+        <v>0.545938718598321</v>
       </c>
       <c r="Q2">
-        <v>53.68077214730999</v>
+        <v>594.298769948224</v>
       </c>
       <c r="R2">
-        <v>483.1269493257899</v>
+        <v>5348.688929534016</v>
       </c>
       <c r="S2">
-        <v>0.006412365510713555</v>
+        <v>0.3169613259036201</v>
       </c>
       <c r="T2">
-        <v>0.00967188474527304</v>
+        <v>0.3952874087090574</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>301.48083</v>
+        <v>236.7946826666667</v>
       </c>
       <c r="H3">
-        <v>904.4424899999999</v>
+        <v>710.384048</v>
       </c>
       <c r="I3">
-        <v>0.5977744084099033</v>
+        <v>0.7123899543147419</v>
       </c>
       <c r="J3">
-        <v>0.6507315779475965</v>
+        <v>0.7240508783182559</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.509764</v>
+        <v>3.131084</v>
       </c>
       <c r="N3">
-        <v>7.529292</v>
+        <v>6.262168</v>
       </c>
       <c r="O3">
-        <v>0.1512010422647355</v>
+        <v>0.5550732797621918</v>
       </c>
       <c r="P3">
-        <v>0.2094995353430986</v>
+        <v>0.454061281401679</v>
       </c>
       <c r="Q3">
-        <v>756.6457338241199</v>
+        <v>741.4240421826773</v>
       </c>
       <c r="R3">
-        <v>6809.811604417079</v>
+        <v>4448.544253096064</v>
       </c>
       <c r="S3">
-        <v>0.09038411359076304</v>
+        <v>0.3954286284111218</v>
       </c>
       <c r="T3">
-        <v>0.1363279632131028</v>
+        <v>0.3287634696091984</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>301.48083</v>
+        <v>78.40049233333333</v>
       </c>
       <c r="H4">
-        <v>904.4424899999999</v>
+        <v>235.201477</v>
       </c>
       <c r="I4">
-        <v>0.5977744084099033</v>
+        <v>0.2358656137148928</v>
       </c>
       <c r="J4">
-        <v>0.6507315779475965</v>
+        <v>0.2397264359793184</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.8571405</v>
+        <v>2.509764</v>
       </c>
       <c r="N4">
-        <v>27.714281</v>
+        <v>7.529292</v>
       </c>
       <c r="O4">
-        <v>0.8348251414909441</v>
+        <v>0.4449267202378082</v>
       </c>
       <c r="P4">
-        <v>0.7711387726585802</v>
+        <v>0.545938718598321</v>
       </c>
       <c r="Q4">
-        <v>4177.662219366614</v>
+        <v>196.766733240476</v>
       </c>
       <c r="R4">
-        <v>25065.97331619969</v>
+        <v>1770.900599164284</v>
       </c>
       <c r="S4">
-        <v>0.4990371050804629</v>
+        <v>0.104942913927045</v>
       </c>
       <c r="T4">
-        <v>0.5018043503486908</v>
+        <v>0.1308759432726915</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>301.48083</v>
+        <v>78.40049233333333</v>
       </c>
       <c r="H5">
-        <v>904.4424899999999</v>
+        <v>235.201477</v>
       </c>
       <c r="I5">
-        <v>0.5977744084099033</v>
+        <v>0.2358656137148928</v>
       </c>
       <c r="J5">
-        <v>0.6507315779475965</v>
+        <v>0.2397264359793184</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05389233333333333</v>
+        <v>3.131084</v>
       </c>
       <c r="N5">
-        <v>0.161677</v>
+        <v>6.262168</v>
       </c>
       <c r="O5">
-        <v>0.003246750280137314</v>
+        <v>0.5550732797621918</v>
       </c>
       <c r="P5">
-        <v>0.004498597793214309</v>
+        <v>0.454061281401679</v>
       </c>
       <c r="Q5">
-        <v>16.24750538397</v>
+        <v>245.4785271370227</v>
       </c>
       <c r="R5">
-        <v>146.22754845573</v>
+        <v>1472.871162822136</v>
       </c>
       <c r="S5">
-        <v>0.001940824227963771</v>
+        <v>0.1309226997878477</v>
       </c>
       <c r="T5">
-        <v>0.002927379640529923</v>
+        <v>0.1088504927066269</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,51 +788,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>78.40049233333333</v>
+        <v>0.6305213333333334</v>
       </c>
       <c r="H6">
-        <v>235.201477</v>
+        <v>1.891564</v>
       </c>
       <c r="I6">
-        <v>0.1554520329654243</v>
+        <v>0.001896905195629352</v>
       </c>
       <c r="J6">
-        <v>0.1692236156041446</v>
+        <v>0.001927955138422806</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.178057</v>
+        <v>2.509764</v>
       </c>
       <c r="N6">
-        <v>0.534171</v>
+        <v>7.529292</v>
       </c>
       <c r="O6">
-        <v>0.01072706596418309</v>
+        <v>0.4449267202378082</v>
       </c>
       <c r="P6">
-        <v>0.01486309420510698</v>
+        <v>0.545938718598321</v>
       </c>
       <c r="Q6">
-        <v>13.95975646339633</v>
+        <v>1.582459743632</v>
       </c>
       <c r="R6">
-        <v>125.637808170567</v>
+        <v>14.242137692688</v>
       </c>
       <c r="S6">
-        <v>0.001667544211886471</v>
+        <v>0.0008439838072934254</v>
       </c>
       <c r="T6">
-        <v>0.002515186540453212</v>
+        <v>0.001052545357785595</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>78.40049233333333</v>
+        <v>0.6305213333333334</v>
       </c>
       <c r="H7">
-        <v>235.201477</v>
+        <v>1.891564</v>
       </c>
       <c r="I7">
-        <v>0.1554520329654243</v>
+        <v>0.001896905195629352</v>
       </c>
       <c r="J7">
-        <v>0.1692236156041446</v>
+        <v>0.001927955138422806</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.509764</v>
+        <v>3.131084</v>
       </c>
       <c r="N7">
-        <v>7.529292</v>
+        <v>6.262168</v>
       </c>
       <c r="O7">
-        <v>0.1512010422647355</v>
+        <v>0.5550732797621918</v>
       </c>
       <c r="P7">
-        <v>0.2094995353430986</v>
+        <v>0.454061281401679</v>
       </c>
       <c r="Q7">
-        <v>196.766733240476</v>
+        <v>1.974215258458667</v>
       </c>
       <c r="R7">
-        <v>1770.900599164284</v>
+        <v>11.845291550752</v>
       </c>
       <c r="S7">
-        <v>0.02350450940654418</v>
+        <v>0.001052921388335926</v>
       </c>
       <c r="T7">
-        <v>0.03545226883814742</v>
+        <v>0.0008754097806372108</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>78.40049233333333</v>
+        <v>16.059769</v>
       </c>
       <c r="H8">
-        <v>235.201477</v>
+        <v>32.119538</v>
       </c>
       <c r="I8">
-        <v>0.1554520329654243</v>
+        <v>0.04831535056182164</v>
       </c>
       <c r="J8">
-        <v>0.1692236156041446</v>
+        <v>0.032737474561192</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.8571405</v>
+        <v>2.509764</v>
       </c>
       <c r="N8">
-        <v>27.714281</v>
+        <v>7.529292</v>
       </c>
       <c r="O8">
-        <v>0.8348251414909441</v>
+        <v>0.4449267202378082</v>
       </c>
       <c r="P8">
-        <v>0.7711387726585802</v>
+        <v>0.545938718598321</v>
       </c>
       <c r="Q8">
-        <v>1086.406637532173</v>
+        <v>40.306230084516</v>
       </c>
       <c r="R8">
-        <v>6518.439825193037</v>
+        <v>241.837380507096</v>
       </c>
       <c r="S8">
-        <v>0.1297752654154153</v>
+        <v>0.02149679046261125</v>
       </c>
       <c r="T8">
-        <v>0.1304948912418274</v>
+        <v>0.01787265491208229</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>78.40049233333333</v>
+        <v>16.059769</v>
       </c>
       <c r="H9">
-        <v>235.201477</v>
+        <v>32.119538</v>
       </c>
       <c r="I9">
-        <v>0.1554520329654243</v>
+        <v>0.04831535056182164</v>
       </c>
       <c r="J9">
-        <v>0.1692236156041446</v>
+        <v>0.032737474561192</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05389233333333333</v>
+        <v>3.131084</v>
       </c>
       <c r="N9">
-        <v>0.161677</v>
+        <v>6.262168</v>
       </c>
       <c r="O9">
-        <v>0.003246750280137314</v>
+        <v>0.5550732797621918</v>
       </c>
       <c r="P9">
-        <v>0.004498597793214309</v>
+        <v>0.454061281401679</v>
       </c>
       <c r="Q9">
-        <v>4.225185466325444</v>
+        <v>50.284485759596</v>
       </c>
       <c r="R9">
-        <v>38.026669196929</v>
+        <v>201.137943038384</v>
       </c>
       <c r="S9">
-        <v>0.0005047139315784065</v>
+        <v>0.02681856009921039</v>
       </c>
       <c r="T9">
-        <v>0.0007612689837165513</v>
+        <v>0.01486481964910971</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6553806666666667</v>
+        <v>0.5092873333333333</v>
       </c>
       <c r="H10">
-        <v>1.966142</v>
+        <v>1.527862</v>
       </c>
       <c r="I10">
-        <v>0.001299484913518232</v>
+        <v>0.001532176212914103</v>
       </c>
       <c r="J10">
-        <v>0.001414607009594434</v>
+        <v>0.001557256002810873</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.178057</v>
+        <v>2.509764</v>
       </c>
       <c r="N10">
-        <v>0.534171</v>
+        <v>7.529292</v>
       </c>
       <c r="O10">
-        <v>0.01072706596418309</v>
+        <v>0.4449267202378082</v>
       </c>
       <c r="P10">
-        <v>0.01486309420510698</v>
+        <v>0.545938718598321</v>
       </c>
       <c r="Q10">
-        <v>0.1166951153646667</v>
+        <v>1.278191014856</v>
       </c>
       <c r="R10">
-        <v>1.050256038282</v>
+        <v>11.503719133704</v>
       </c>
       <c r="S10">
-        <v>1.393966038677083E-05</v>
+        <v>0.0006817061372382576</v>
       </c>
       <c r="T10">
-        <v>2.102543724680674E-05</v>
+        <v>0.0008501663467041111</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,666 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6553806666666667</v>
+        <v>0.5092873333333333</v>
       </c>
       <c r="H11">
-        <v>1.966142</v>
+        <v>1.527862</v>
       </c>
       <c r="I11">
-        <v>0.001299484913518232</v>
+        <v>0.001532176212914103</v>
       </c>
       <c r="J11">
-        <v>0.001414607009594434</v>
+        <v>0.001557256002810873</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.509764</v>
+        <v>3.131084</v>
       </c>
       <c r="N11">
-        <v>7.529292</v>
+        <v>6.262168</v>
       </c>
       <c r="O11">
-        <v>0.1512010422647355</v>
+        <v>0.5550732797621918</v>
       </c>
       <c r="P11">
-        <v>0.2094995353430986</v>
+        <v>0.454061281401679</v>
       </c>
       <c r="Q11">
-        <v>1.644850803496</v>
+        <v>1.594621420802667</v>
       </c>
       <c r="R11">
-        <v>14.803657231464</v>
+        <v>9.567728524816001</v>
       </c>
       <c r="S11">
-        <v>0.0001964834733312563</v>
+        <v>0.0008504700756758453</v>
       </c>
       <c r="T11">
-        <v>0.0002963595112031241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.6553806666666667</v>
-      </c>
-      <c r="H12">
-        <v>1.966142</v>
-      </c>
-      <c r="I12">
-        <v>0.001299484913518232</v>
-      </c>
-      <c r="J12">
-        <v>0.001414607009594434</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>13.8571405</v>
-      </c>
-      <c r="N12">
-        <v>27.714281</v>
-      </c>
-      <c r="O12">
-        <v>0.8348251414909441</v>
-      </c>
-      <c r="P12">
-        <v>0.7711387726585802</v>
-      </c>
-      <c r="Q12">
-        <v>9.081701978983668</v>
-      </c>
-      <c r="R12">
-        <v>54.490211873902</v>
-      </c>
-      <c r="S12">
-        <v>0.001084842676793205</v>
-      </c>
-      <c r="T12">
-        <v>0.001090858313172876</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.6553806666666667</v>
-      </c>
-      <c r="H13">
-        <v>1.966142</v>
-      </c>
-      <c r="I13">
-        <v>0.001299484913518232</v>
-      </c>
-      <c r="J13">
-        <v>0.001414607009594434</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.05389233333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.161677</v>
-      </c>
-      <c r="O13">
-        <v>0.003246750280137314</v>
-      </c>
-      <c r="P13">
-        <v>0.004498597793214309</v>
-      </c>
-      <c r="Q13">
-        <v>0.03531999334822222</v>
-      </c>
-      <c r="R13">
-        <v>0.317879940134</v>
-      </c>
-      <c r="S13">
-        <v>4.219103006999533E-06</v>
-      </c>
-      <c r="T13">
-        <v>6.363747971627013E-06</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>123.130749</v>
-      </c>
-      <c r="H14">
-        <v>246.261498</v>
-      </c>
-      <c r="I14">
-        <v>0.2441429215932015</v>
-      </c>
-      <c r="J14">
-        <v>0.1771811198092638</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.178057</v>
-      </c>
-      <c r="N14">
-        <v>0.534171</v>
-      </c>
-      <c r="O14">
-        <v>0.01072706596418309</v>
-      </c>
-      <c r="P14">
-        <v>0.01486309420510698</v>
-      </c>
-      <c r="Q14">
-        <v>21.924291774693</v>
-      </c>
-      <c r="R14">
-        <v>131.545750648158</v>
-      </c>
-      <c r="S14">
-        <v>0.002618937224618652</v>
-      </c>
-      <c r="T14">
-        <v>0.002633459675091434</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>123.130749</v>
-      </c>
-      <c r="H15">
-        <v>246.261498</v>
-      </c>
-      <c r="I15">
-        <v>0.2441429215932015</v>
-      </c>
-      <c r="J15">
-        <v>0.1771811198092638</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>2.509764</v>
-      </c>
-      <c r="N15">
-        <v>7.529292</v>
-      </c>
-      <c r="O15">
-        <v>0.1512010422647355</v>
-      </c>
-      <c r="P15">
-        <v>0.2094995353430986</v>
-      </c>
-      <c r="Q15">
-        <v>309.0291211332361</v>
-      </c>
-      <c r="R15">
-        <v>1854.174726799416</v>
-      </c>
-      <c r="S15">
-        <v>0.03691466420644966</v>
-      </c>
-      <c r="T15">
-        <v>0.03711936227161066</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>123.130749</v>
-      </c>
-      <c r="H16">
-        <v>246.261498</v>
-      </c>
-      <c r="I16">
-        <v>0.2441429215932015</v>
-      </c>
-      <c r="J16">
-        <v>0.1771811198092638</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>13.8571405</v>
-      </c>
-      <c r="N16">
-        <v>27.714281</v>
-      </c>
-      <c r="O16">
-        <v>0.8348251414909441</v>
-      </c>
-      <c r="P16">
-        <v>0.7711387726585802</v>
-      </c>
-      <c r="Q16">
-        <v>1706.240088763235</v>
-      </c>
-      <c r="R16">
-        <v>6824.960355052938</v>
-      </c>
-      <c r="S16">
-        <v>0.2038166490630569</v>
-      </c>
-      <c r="T16">
-        <v>0.1366312312679886</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>123.130749</v>
-      </c>
-      <c r="H17">
-        <v>246.261498</v>
-      </c>
-      <c r="I17">
-        <v>0.2441429215932015</v>
-      </c>
-      <c r="J17">
-        <v>0.1771811198092638</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.05389233333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.161677</v>
-      </c>
-      <c r="O17">
-        <v>0.003246750280137314</v>
-      </c>
-      <c r="P17">
-        <v>0.004498597793214309</v>
-      </c>
-      <c r="Q17">
-        <v>6.635803368691</v>
-      </c>
-      <c r="R17">
-        <v>39.814820212146</v>
-      </c>
-      <c r="S17">
-        <v>0.0007926710990762692</v>
-      </c>
-      <c r="T17">
-        <v>0.0007970665945731945</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.6713516666666667</v>
-      </c>
-      <c r="H18">
-        <v>2.014055</v>
-      </c>
-      <c r="I18">
-        <v>0.001331152117952804</v>
-      </c>
-      <c r="J18">
-        <v>0.001449079629400479</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.178057</v>
-      </c>
-      <c r="N18">
-        <v>0.534171</v>
-      </c>
-      <c r="O18">
-        <v>0.01072706596418309</v>
-      </c>
-      <c r="P18">
-        <v>0.01486309420510698</v>
-      </c>
-      <c r="Q18">
-        <v>0.1195388637116667</v>
-      </c>
-      <c r="R18">
-        <v>1.075849773405</v>
-      </c>
-      <c r="S18">
-        <v>1.427935657764176E-05</v>
-      </c>
-      <c r="T18">
-        <v>2.153780704248083E-05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.6713516666666667</v>
-      </c>
-      <c r="H19">
-        <v>2.014055</v>
-      </c>
-      <c r="I19">
-        <v>0.001331152117952804</v>
-      </c>
-      <c r="J19">
-        <v>0.001449079629400479</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>2.509764</v>
-      </c>
-      <c r="N19">
-        <v>7.529292</v>
-      </c>
-      <c r="O19">
-        <v>0.1512010422647355</v>
-      </c>
-      <c r="P19">
-        <v>0.2094995353430986</v>
-      </c>
-      <c r="Q19">
-        <v>1.68493424434</v>
-      </c>
-      <c r="R19">
-        <v>15.16440819906</v>
-      </c>
-      <c r="S19">
-        <v>0.0002012715876473741</v>
-      </c>
-      <c r="T19">
-        <v>0.00030358150903455</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.6713516666666667</v>
-      </c>
-      <c r="H20">
-        <v>2.014055</v>
-      </c>
-      <c r="I20">
-        <v>0.001331152117952804</v>
-      </c>
-      <c r="J20">
-        <v>0.001449079629400479</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>13.8571405</v>
-      </c>
-      <c r="N20">
-        <v>27.714281</v>
-      </c>
-      <c r="O20">
-        <v>0.8348251414909441</v>
-      </c>
-      <c r="P20">
-        <v>0.7711387726585802</v>
-      </c>
-      <c r="Q20">
-        <v>9.303014369909167</v>
-      </c>
-      <c r="R20">
-        <v>55.818086219455</v>
-      </c>
-      <c r="S20">
-        <v>0.00111127925521592</v>
-      </c>
-      <c r="T20">
-        <v>0.001117441486900436</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.6713516666666667</v>
-      </c>
-      <c r="H21">
-        <v>2.014055</v>
-      </c>
-      <c r="I21">
-        <v>0.001331152117952804</v>
-      </c>
-      <c r="J21">
-        <v>0.001449079629400479</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.05389233333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.161677</v>
-      </c>
-      <c r="O21">
-        <v>0.003246750280137314</v>
-      </c>
-      <c r="P21">
-        <v>0.004498597793214309</v>
-      </c>
-      <c r="Q21">
-        <v>0.03618070780388889</v>
-      </c>
-      <c r="R21">
-        <v>0.325626370235</v>
-      </c>
-      <c r="S21">
-        <v>4.321918511868646E-06</v>
-      </c>
-      <c r="T21">
-        <v>6.518826423012805E-06</v>
+        <v>0.0007070896561067614</v>
       </c>
     </row>
   </sheetData>
